--- a/wildlife/reports/Seychelles/composition/Port Launay/Bats/composition.xlsx
+++ b/wildlife/reports/Seychelles/composition/Port Launay/Bats/composition.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
